--- a/data/InaccuracyTabs.xlsx
+++ b/data/InaccuracyTabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1824C81A-9881-4779-9B94-EE892CAD9F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54196030-9221-4885-95CD-4F82928AFD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>PH NUM</t>
   </si>
   <si>
-    <t>Reference Code</t>
-  </si>
-  <si>
     <t>Confirmed Info</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Location Number</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +406,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -420,68 +420,68 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
